--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-06-extract-unique-values-by-column-Complete.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-06-extract-unique-values-by-column-Complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE201FE-A9C9-47A2-89A5-A0738EF35D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE86FB-6F85-4E19-AC59-536290841E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="By Column" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
   <si>
     <t>Crayon Packs</t>
   </si>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +169,18 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -232,12 +244,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,26 +525,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="7" width="10.125" customWidth="1"/>
+    <col min="2" max="7" width="10.09765625" customWidth="1"/>
     <col min="8" max="11" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -555,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -584,7 +599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -613,7 +628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -642,7 +657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -671,7 +686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -700,7 +715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -729,12 +744,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
@@ -754,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -778,7 +793,7 @@
         <v>Brown</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -801,7 +816,7 @@
         <v>Grey</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,7 +839,7 @@
         <v>Red</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -847,7 +862,7 @@
         <v>Blue</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -870,7 +885,7 @@
         <v>Cyan</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -893,12 +908,12 @@
         <v>Yellow</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
@@ -912,7 +927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -930,7 +945,7 @@
         <v>Brown</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -947,7 +962,7 @@
         <v>Grey</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,7 +979,7 @@
         <v>Red</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -981,7 +996,7 @@
         <v>Blue</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -998,7 +1013,7 @@
         <v>Cyan</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1012,6 +1027,447 @@
         <v>Brown</v>
       </c>
       <c r="E33" t="str">
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="str" cm="1">
+        <f t="array" ref="B58:G63">_xlfn.UNIQUE(B47:I52,TRUE,FALSE)</f>
+        <v>Orange</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Black</v>
+      </c>
+      <c r="D58" t="str">
+        <v>White</v>
+      </c>
+      <c r="E58" t="str">
+        <v xml:space="preserve">Pink </v>
+      </c>
+      <c r="F58" t="str">
+        <v>Black</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Brown</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="str">
+        <v>Black</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Black</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Grey</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Green</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Yellow</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Red</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Yellow</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Cyan</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="str">
+        <v>Red</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Red</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Green</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Red</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Green</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Cyan</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="str">
+        <v>Yellow</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Black</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Brown</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Yellow</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" t="str" cm="1">
+        <f t="array" ref="B71:E76">_xlfn.UNIQUE(B47:I52,TRUE,TRUE)</f>
+        <v>White</v>
+      </c>
+      <c r="C71" t="str">
+        <v xml:space="preserve">Pink </v>
+      </c>
+      <c r="D71" t="str">
+        <v>Black</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Brown</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" t="str">
+        <v>Black</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Grey</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Yellow</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Red</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" t="str">
+        <v>Cyan</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" t="str">
+        <v>Green</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Red</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Green</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Cyan</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Black</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Brown</v>
+      </c>
+      <c r="E76" t="str">
         <v>Yellow</v>
       </c>
     </row>
